--- a/biology/Médecine/Classification_de_Prader/Classification_de_Prader.xlsx
+++ b/biology/Médecine/Classification_de_Prader/Classification_de_Prader.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification de Prader, du nom d'Andrea Prader (en)(1919-2001) endocrinologue pédiatrique suisse, répertorie les différents cas d'intersexuation selon 5 types[1],[2] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification de Prader, du nom d'Andrea Prader (en)(1919-2001) endocrinologue pédiatrique suisse, répertorie les différents cas d'intersexuation selon 5 types, :
 Type 1 : vulve normale avec hypertrophie clitoridienne.
 Type 2 : large vestibule en entonnoir s'ouvrant à la base du clitoris (sinus urogénital à 2 orifices séparés pour l'urètre et le vagin). Grandes lèvres séparées ou partiellement soudées.
 Type 3 : clitoris volumineux à la base duquel s'ouvre l'orifice unique d'un sinus urogénital étroit dans lequel se jettent urètre et vagin. Grandes lèvres partiellement soudées.
@@ -490,7 +502,7 @@
 Type 4 bis : le vagin ne communique pas avec le sinus et ne peut donc pas être démontré par la génitographie.
 Type 5 : aspect de garçon cryptorchide. Le vagin s'abouche très haut dans l'urètre.
 Type 5 bis, le vagin ne communique pas avec l'urètre.
-Publiée en 1954[3], la classification de Prader s'applique en principe aux états d'hyperplasie congénitale des surrénales, pour définir un degré ou stade de virilisation (pseudo-hermaphrodisme féminin). 
+Publiée en 1954, la classification de Prader s'applique en principe aux états d'hyperplasie congénitale des surrénales, pour définir un degré ou stade de virilisation (pseudo-hermaphrodisme féminin). 
 </t>
         </is>
       </c>
